--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H2">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I2">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J2">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>8970.95733192748</v>
+        <v>3906.940539373682</v>
       </c>
       <c r="R2">
-        <v>35883.82932770992</v>
+        <v>15627.76215749473</v>
       </c>
       <c r="S2">
-        <v>0.1153038904432474</v>
+        <v>0.07580484563902179</v>
       </c>
       <c r="T2">
-        <v>0.0805532649429067</v>
+        <v>0.05869476949627058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H3">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I3">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J3">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>6473.735503123683</v>
+        <v>2302.118173423596</v>
       </c>
       <c r="R3">
-        <v>38842.4130187421</v>
+        <v>13812.70904054158</v>
       </c>
       <c r="S3">
-        <v>0.08320704932506397</v>
+        <v>0.04466710230689568</v>
       </c>
       <c r="T3">
-        <v>0.087194796250588</v>
+        <v>0.05187779063202793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H4">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I4">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J4">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>4607.760094255108</v>
+        <v>1504.442935889185</v>
       </c>
       <c r="R4">
-        <v>27646.56056553065</v>
+        <v>9026.657615335109</v>
       </c>
       <c r="S4">
-        <v>0.05922363081651241</v>
+        <v>0.02919012034569603</v>
       </c>
       <c r="T4">
-        <v>0.06206195826139366</v>
+        <v>0.03390233244622045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H5">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I5">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J5">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>7626.272251328437</v>
+        <v>3334.804500036809</v>
       </c>
       <c r="R5">
-        <v>30505.08900531375</v>
+        <v>13339.21800014724</v>
       </c>
       <c r="S5">
-        <v>0.09802062674270004</v>
+        <v>0.06470391289910205</v>
       </c>
       <c r="T5">
-        <v>0.06847888206999259</v>
+        <v>0.0500994523648841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H6">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I6">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J6">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>6635.570594418201</v>
+        <v>1160.17149957528</v>
       </c>
       <c r="R6">
-        <v>39813.42356650921</v>
+        <v>6961.028997451683</v>
       </c>
       <c r="S6">
-        <v>0.08528711892589518</v>
+        <v>0.0225103557512025</v>
       </c>
       <c r="T6">
-        <v>0.08937455441414163</v>
+        <v>0.0261442417887284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H7">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I7">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J7">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>4340.869669179335</v>
+        <v>1672.104334982323</v>
       </c>
       <c r="R7">
-        <v>26045.21801507601</v>
+        <v>10032.62600989394</v>
       </c>
       <c r="S7">
-        <v>0.05579328295121087</v>
+        <v>0.03244318917277249</v>
       </c>
       <c r="T7">
-        <v>0.05846720895097064</v>
+        <v>0.03768054985470892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J8">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>946.2623616394069</v>
+        <v>1158.875855833597</v>
       </c>
       <c r="R8">
-        <v>5677.574169836442</v>
+        <v>6953.255135001582</v>
       </c>
       <c r="S8">
-        <v>0.01216232868355379</v>
+        <v>0.0224852168803004</v>
       </c>
       <c r="T8">
-        <v>0.01274521546067742</v>
+        <v>0.02611504470599794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J9">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>682.8537935425119</v>
       </c>
       <c r="R9">
-        <v>6145.684141882606</v>
+        <v>6145.684141882607</v>
       </c>
       <c r="S9">
-        <v>0.008776733194255945</v>
+        <v>0.01324914620323572</v>
       </c>
       <c r="T9">
-        <v>0.01379604496541852</v>
+        <v>0.02308196851663065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J10">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>486.0295046928779</v>
+        <v>446.2475375069006</v>
       </c>
       <c r="R10">
-        <v>4374.265542235901</v>
+        <v>4016.227837562106</v>
       </c>
       <c r="S10">
-        <v>0.006246946751362213</v>
+        <v>0.008658367169039912</v>
       </c>
       <c r="T10">
-        <v>0.009819503039555992</v>
+        <v>0.01508415375116017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J11">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>804.424112615483</v>
+        <v>989.1689878744409</v>
       </c>
       <c r="R11">
-        <v>4826.544675692898</v>
+        <v>5935.013927246645</v>
       </c>
       <c r="S11">
-        <v>0.01033927888842086</v>
+        <v>0.01919246061747076</v>
       </c>
       <c r="T11">
-        <v>0.01083479492863473</v>
+        <v>0.02229073304969864</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J12">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>699.9242632837359</v>
+        <v>344.1298186994126</v>
       </c>
       <c r="R12">
-        <v>6299.318369553623</v>
+        <v>3097.168368294714</v>
       </c>
       <c r="S12">
-        <v>0.008996140276469094</v>
+        <v>0.006677016843075746</v>
       </c>
       <c r="T12">
-        <v>0.0141409284095142</v>
+        <v>0.01163234899764695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J13">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>457.8777306305567</v>
+        <v>495.9792253598893</v>
       </c>
       <c r="R13">
-        <v>4120.89957567501</v>
+        <v>4463.813028239003</v>
       </c>
       <c r="S13">
-        <v>0.005885111447485284</v>
+        <v>0.009623291739319697</v>
       </c>
       <c r="T13">
-        <v>0.009250738328145032</v>
+        <v>0.01676519479414314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H14">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I14">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J14">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>36.96476812247217</v>
+        <v>10.54143319790183</v>
       </c>
       <c r="R14">
-        <v>221.788608734833</v>
+        <v>63.248599187411</v>
       </c>
       <c r="S14">
-        <v>0.0004751088892915079</v>
+        <v>0.0002045313227390734</v>
       </c>
       <c r="T14">
-        <v>0.0004978787630934219</v>
+        <v>0.0002375491713307608</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H15">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I15">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J15">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>26.67498271422133</v>
+        <v>6.211413942509333</v>
       </c>
       <c r="R15">
-        <v>240.074844427992</v>
+        <v>55.902725482584</v>
       </c>
       <c r="S15">
-        <v>0.0003428540757305385</v>
+        <v>0.0001205176455507229</v>
       </c>
       <c r="T15">
-        <v>0.0005389283393565102</v>
+        <v>0.0002099595292880734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H16">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I16">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J16">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>18.986243847347</v>
+        <v>4.059182510945889</v>
       </c>
       <c r="R16">
-        <v>170.876194626123</v>
+        <v>36.53264259851301</v>
       </c>
       <c r="S16">
-        <v>0.0002440305643537058</v>
+        <v>7.875873731935472E-05</v>
       </c>
       <c r="T16">
-        <v>0.000383588809668219</v>
+        <v>0.0001372093467253729</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H17">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I17">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J17">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>31.42400247584617</v>
+        <v>8.9977358270305</v>
       </c>
       <c r="R17">
-        <v>188.544014855077</v>
+        <v>53.986414962183</v>
       </c>
       <c r="S17">
-        <v>0.0004038933198208406</v>
+        <v>0.0001745795638799471</v>
       </c>
       <c r="T17">
-        <v>0.0004232501454434276</v>
+        <v>0.0002027622477358792</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H18">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I18">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J18">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>27.34182309729733</v>
+        <v>3.130293445121889</v>
       </c>
       <c r="R18">
-        <v>246.076407875676</v>
+        <v>28.172641006097</v>
       </c>
       <c r="S18">
-        <v>0.0003514249882461605</v>
+        <v>6.073586455204829E-05</v>
       </c>
       <c r="T18">
-        <v>0.0005524008571878117</v>
+        <v>0.0001058108418396309</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H19">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I19">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J19">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>17.88652368237389</v>
+        <v>4.511554749682444</v>
       </c>
       <c r="R19">
-        <v>160.978713141365</v>
+        <v>40.603992747142</v>
       </c>
       <c r="S19">
-        <v>0.0002298958395156996</v>
+        <v>8.753593968095007E-05</v>
       </c>
       <c r="T19">
-        <v>0.0003613705998715973</v>
+        <v>0.0001525005289243407</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H20">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I20">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J20">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>4980.882870542244</v>
+        <v>9373.613641344184</v>
       </c>
       <c r="R20">
-        <v>19923.53148216898</v>
+        <v>37494.45456537673</v>
       </c>
       <c r="S20">
-        <v>0.06401938517438634</v>
+        <v>0.1818725747169509</v>
       </c>
       <c r="T20">
-        <v>0.04472503465069635</v>
+        <v>0.1408217213651256</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H21">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I21">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J21">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>3594.367588971896</v>
+        <v>5523.290179852368</v>
       </c>
       <c r="R21">
-        <v>21566.20553383137</v>
+        <v>33139.74107911421</v>
       </c>
       <c r="S21">
-        <v>0.04619847708076526</v>
+        <v>0.1071662481892682</v>
       </c>
       <c r="T21">
-        <v>0.04841256634888715</v>
+        <v>0.1244662827730493</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H22">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I22">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J22">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>2558.334910741599</v>
+        <v>3609.491028684926</v>
       </c>
       <c r="R22">
-        <v>15350.00946444959</v>
+        <v>21656.94617210956</v>
       </c>
       <c r="S22">
-        <v>0.0328823287583182</v>
+        <v>0.07003354863157399</v>
       </c>
       <c r="T22">
-        <v>0.03445823376244571</v>
+        <v>0.08133918668294392</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H23">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I23">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J23">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>4234.282631971002</v>
+        <v>8000.932862359899</v>
       </c>
       <c r="R23">
-        <v>16937.13052788401</v>
+        <v>32003.73144943959</v>
       </c>
       <c r="S23">
-        <v>0.05442331767256659</v>
+        <v>0.1552389841839256</v>
       </c>
       <c r="T23">
-        <v>0.03802105818543935</v>
+        <v>0.1201996563240847</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H24">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I24">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J24">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>3684.222172407788</v>
+        <v>2783.507781887294</v>
       </c>
       <c r="R24">
-        <v>22105.33303444673</v>
+        <v>16701.04669132377</v>
       </c>
       <c r="S24">
-        <v>0.04735337980306922</v>
+        <v>0.05400731739183517</v>
       </c>
       <c r="T24">
-        <v>0.04962281846547326</v>
+        <v>0.06272581294843854</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H25">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I25">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J25">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>2410.151177681079</v>
+        <v>4011.747771992884</v>
       </c>
       <c r="R25">
-        <v>14460.90706608647</v>
+        <v>24070.4866319573</v>
       </c>
       <c r="S25">
-        <v>0.03097772033247358</v>
+        <v>0.07783837955398257</v>
       </c>
       <c r="T25">
-        <v>0.0324623458542003</v>
+        <v>0.0904039650903084</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H26">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I26">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J26">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>3109.068934996781</v>
+        <v>26.841583071446</v>
       </c>
       <c r="R26">
-        <v>18654.41360998068</v>
+        <v>161.049498428676</v>
       </c>
       <c r="S26">
-        <v>0.03996092396800519</v>
+        <v>0.0005207967822730489</v>
       </c>
       <c r="T26">
-        <v>0.04187607482345692</v>
+        <v>0.0006048699162744676</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H27">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I27">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J27">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>2243.605582039157</v>
+        <v>15.816083088416</v>
       </c>
       <c r="R27">
-        <v>20192.45023835241</v>
+        <v>142.344747795744</v>
       </c>
       <c r="S27">
-        <v>0.02883710652692607</v>
+        <v>0.0003068733002329023</v>
       </c>
       <c r="T27">
-        <v>0.04532871280380342</v>
+        <v>0.0005346185894484671</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H28">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I28">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J28">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>1596.913600065956</v>
+        <v>10.33587013494533</v>
       </c>
       <c r="R28">
-        <v>14372.2224005936</v>
+        <v>93.022831214508</v>
       </c>
       <c r="S28">
-        <v>0.02052516180564365</v>
+        <v>0.0002005428626897172</v>
       </c>
       <c r="T28">
-        <v>0.03226326344048746</v>
+        <v>0.0003493752708162095</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H29">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I29">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J29">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>2643.040789197333</v>
+        <v>22.910876455038</v>
       </c>
       <c r="R29">
-        <v>15858.244735184</v>
+        <v>137.465258730228</v>
       </c>
       <c r="S29">
-        <v>0.03397105507458309</v>
+        <v>0.000444530812697567</v>
       </c>
       <c r="T29">
-        <v>0.03559913792969366</v>
+        <v>0.0005162921980513031</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H30">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I30">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J30">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>2299.692846343205</v>
+        <v>7.970645923361332</v>
       </c>
       <c r="R30">
-        <v>20697.23561708885</v>
+        <v>71.735813310252</v>
       </c>
       <c r="S30">
-        <v>0.02955799723449406</v>
+        <v>0.0001546513385024705</v>
       </c>
       <c r="T30">
-        <v>0.046461872533812</v>
+        <v>0.0002694254612042114</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H31">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I31">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J31">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>1504.417258934336</v>
+        <v>11.48774263627466</v>
       </c>
       <c r="R31">
-        <v>13539.75533040902</v>
+        <v>103.389683726472</v>
       </c>
       <c r="S31">
-        <v>0.01933630451989062</v>
+        <v>0.0002228921962101863</v>
       </c>
       <c r="T31">
-        <v>0.03039451248170834</v>
+        <v>0.0003883111090033645</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H32">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I32">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J32">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>12.05243239143633</v>
+        <v>29.897974547848</v>
       </c>
       <c r="R32">
-        <v>72.314594348618</v>
+        <v>179.387847287088</v>
       </c>
       <c r="S32">
-        <v>0.0001549101497886887</v>
+        <v>0.00058009875570882</v>
       </c>
       <c r="T32">
-        <v>0.0001623343101039882</v>
+        <v>0.0006737451108377844</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H33">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I33">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J33">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>8.697428444314665</v>
+        <v>17.617025358208</v>
       </c>
       <c r="R33">
-        <v>78.27685599883199</v>
+        <v>158.553228223872</v>
       </c>
       <c r="S33">
-        <v>0.0001117882182888247</v>
+        <v>0.0003418162816759364</v>
       </c>
       <c r="T33">
-        <v>0.0001757186018968862</v>
+        <v>0.0005954944213830822</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H34">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I34">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J34">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>6.190500629661999</v>
+        <v>11.51279272172267</v>
       </c>
       <c r="R34">
-        <v>55.714505666958</v>
+        <v>103.615134495504</v>
       </c>
       <c r="S34">
-        <v>7.956662594426119E-05</v>
+        <v>0.000223378233261811</v>
       </c>
       <c r="T34">
-        <v>0.0001250698551474792</v>
+        <v>0.0003891578572957773</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H35">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I35">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J35">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>10.24585529804033</v>
+        <v>25.519687095144</v>
       </c>
       <c r="R35">
-        <v>61.475131788242</v>
+        <v>153.118122570864</v>
       </c>
       <c r="S35">
-        <v>0.0001316901789932801</v>
+        <v>0.0004951485494871766</v>
       </c>
       <c r="T35">
-        <v>0.0001380015085099726</v>
+        <v>0.0005750812444818589</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H36">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I36">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J36">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>8.914853009410665</v>
+        <v>8.878245679930666</v>
       </c>
       <c r="R36">
-        <v>80.233677084696</v>
+        <v>79.904211119376</v>
       </c>
       <c r="S36">
-        <v>0.0001145827804861363</v>
+        <v>0.0001722611430939121</v>
       </c>
       <c r="T36">
-        <v>0.0001801113417557213</v>
+        <v>0.0003001043403507337</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H37">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I37">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J37">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>5.831934794921112</v>
+        <v>12.79582638763733</v>
       </c>
       <c r="R37">
-        <v>52.48741315429001</v>
+        <v>115.162437488736</v>
       </c>
       <c r="S37">
-        <v>7.495797224143818E-05</v>
+        <v>0.0002482724357750443</v>
       </c>
       <c r="T37">
-        <v>0.0001178255659219846</v>
+        <v>0.0004325272329402809</v>
       </c>
     </row>
   </sheetData>
